--- a/raw_data/20200818_saline/20200818_Sensor1_Test_55.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_55.xlsx
@@ -1,658 +1,1074 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778FF806-FC36-456A-BC23-86CB8162017A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>48787.761234</v>
+        <v>48787.761233999998</v>
       </c>
       <c r="B2" s="1">
         <v>13.552156</v>
       </c>
       <c r="C2" s="1">
-        <v>895.367000</v>
+        <v>895.36699999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-188.359000</v>
+        <v>-188.35900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>48797.858812</v>
+        <v>48797.858811999999</v>
       </c>
       <c r="G2" s="1">
         <v>13.554961</v>
       </c>
       <c r="H2" s="1">
-        <v>913.596000</v>
+        <v>913.596</v>
       </c>
       <c r="I2" s="1">
-        <v>-161.219000</v>
+        <v>-161.21899999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>48808.300057</v>
       </c>
       <c r="L2" s="1">
-        <v>13.557861</v>
+        <v>13.557861000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>938.901000</v>
+        <v>938.90099999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.022000</v>
+        <v>-117.02200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>48818.848217</v>
+        <v>48818.848216999999</v>
       </c>
       <c r="Q2" s="1">
         <v>13.560791</v>
       </c>
       <c r="R2" s="1">
-        <v>946.546000</v>
+        <v>946.54600000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-101.935000</v>
+        <v>-101.935</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>48829.403374</v>
+        <v>48829.403374000001</v>
       </c>
       <c r="V2" s="1">
         <v>13.563723</v>
       </c>
       <c r="W2" s="1">
-        <v>954.226000</v>
+        <v>954.226</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.653300</v>
+        <v>-87.653300000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>48839.813910</v>
+        <v>48839.813909999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>13.566615</v>
+        <v>13.566615000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.874000</v>
+        <v>961.87400000000002</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.625500</v>
+        <v>-76.625500000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>48850.403490</v>
+        <v>48850.403489999997</v>
       </c>
       <c r="AF2" s="1">
         <v>13.569557</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.923000</v>
+        <v>966.923</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.702500</v>
+        <v>-74.702500000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>48860.842261</v>
+        <v>48860.842260999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>13.572456</v>
+        <v>13.572456000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.271000</v>
+        <v>974.27099999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.559000</v>
+        <v>-79.558999999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>48872.064245</v>
+        <v>48872.064245000001</v>
       </c>
       <c r="AP2" s="1">
         <v>13.575573</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.497000</v>
+        <v>982.49699999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.283100</v>
+        <v>-91.283100000000005</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>48882.967836</v>
+        <v>48882.967836000003</v>
       </c>
       <c r="AU2" s="1">
         <v>13.578602</v>
       </c>
       <c r="AV2" s="1">
-        <v>992.475000</v>
+        <v>992.47500000000002</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.062000</v>
+        <v>-109.062</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>48894.202184</v>
+        <v>48894.202184000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>13.581723</v>
       </c>
       <c r="BA2" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.735000</v>
+        <v>-124.735</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>48905.204473</v>
+        <v>48905.204472999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>13.584779</v>
+        <v>13.584778999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1039.680000</v>
+        <v>1039.68</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.755000</v>
+        <v>-196.755</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>48916.207724</v>
@@ -661,76 +1077,76 @@
         <v>13.587835</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.430000</v>
+        <v>1106.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.495000</v>
+        <v>-313.495</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>48928.427626</v>
+        <v>48928.427625999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>13.591230</v>
+        <v>13.591229999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.550000</v>
+        <v>1214.55</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-497.513000</v>
+        <v>-497.51299999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>48938.849592</v>
+        <v>48938.849591999999</v>
       </c>
       <c r="BT2" s="1">
         <v>13.594125</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.470000</v>
+        <v>1336.47</v>
       </c>
       <c r="BV2" s="1">
-        <v>-699.800000</v>
+        <v>-699.8</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>48949.576579</v>
       </c>
       <c r="BY2" s="1">
-        <v>13.597105</v>
+        <v>13.597105000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.250000</v>
+        <v>1472.25</v>
       </c>
       <c r="CA2" s="1">
-        <v>-915.205000</v>
+        <v>-915.20500000000004</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>48960.601121</v>
       </c>
       <c r="CD2" s="1">
-        <v>13.600167</v>
+        <v>13.600167000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1828.960000</v>
+        <v>1828.96</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1427.320000</v>
+        <v>-1427.32</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>48788.189283</v>
       </c>
@@ -738,28 +1154,28 @@
         <v>13.552275</v>
       </c>
       <c r="C3" s="1">
-        <v>895.247000</v>
+        <v>895.24699999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-188.183000</v>
+        <v>-188.18299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>48798.269500</v>
+        <v>48798.269500000002</v>
       </c>
       <c r="G3" s="1">
         <v>13.555075</v>
       </c>
       <c r="H3" s="1">
-        <v>913.331000</v>
+        <v>913.33100000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>-160.950000</v>
+        <v>-160.94999999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>48808.719673</v>
@@ -768,28 +1184,28 @@
         <v>13.557978</v>
       </c>
       <c r="M3" s="1">
-        <v>938.972000</v>
+        <v>938.97199999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.013000</v>
+        <v>-117.01300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>48819.222493</v>
+        <v>48819.222493000001</v>
       </c>
       <c r="Q3" s="1">
         <v>13.560895</v>
       </c>
       <c r="R3" s="1">
-        <v>946.546000</v>
+        <v>946.54600000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-101.893000</v>
+        <v>-101.893</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>48829.777853</v>
@@ -798,163 +1214,163 @@
         <v>13.563827</v>
       </c>
       <c r="W3" s="1">
-        <v>953.939000</v>
+        <v>953.93899999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.553900</v>
+        <v>-87.553899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>48840.202239</v>
+        <v>48840.202238999998</v>
       </c>
       <c r="AA3" s="1">
         <v>13.566723</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.819000</v>
+        <v>961.81899999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.595500</v>
+        <v>-76.595500000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>48850.781943</v>
+        <v>48850.781943000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>13.569662</v>
+        <v>13.569661999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.817000</v>
+        <v>966.81700000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.669000</v>
+        <v>-74.668999999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>48861.574356</v>
+        <v>48861.574355999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>13.572660</v>
+        <v>13.572660000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.280000</v>
+        <v>974.28</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.555200</v>
+        <v>-79.555199999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>48872.424837</v>
+        <v>48872.424836999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.575674</v>
+        <v>13.575673999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.491000</v>
+        <v>982.49099999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.275400</v>
+        <v>-91.275400000000005</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>48883.366086</v>
+        <v>48883.366086000002</v>
       </c>
       <c r="AU3" s="1">
         <v>13.578713</v>
       </c>
       <c r="AV3" s="1">
-        <v>992.478000</v>
+        <v>992.47799999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.058000</v>
+        <v>-109.05800000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>48894.615889</v>
+        <v>48894.615889000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>13.581838</v>
+        <v>13.581837999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.770000</v>
+        <v>-124.77</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>48905.890586</v>
+        <v>48905.890586000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>13.584970</v>
+        <v>13.58497</v>
       </c>
       <c r="BF3" s="1">
-        <v>1039.640000</v>
+        <v>1039.6400000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.778000</v>
+        <v>-196.77799999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>48916.935322</v>
+        <v>48916.935321999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>13.588038</v>
+        <v>13.588037999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.430000</v>
+        <v>1106.43</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.515000</v>
+        <v>-313.51499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>48928.538427</v>
       </c>
       <c r="BO3" s="1">
-        <v>13.591261</v>
+        <v>13.591260999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.570000</v>
+        <v>1214.57</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-497.510000</v>
+        <v>-497.51</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>48939.294477</v>
+        <v>48939.294477000003</v>
       </c>
       <c r="BT3" s="1">
         <v>13.594248</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.470000</v>
+        <v>1336.47</v>
       </c>
       <c r="BV3" s="1">
-        <v>-699.892000</v>
+        <v>-699.89200000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>48950.061662</v>
@@ -963,497 +1379,497 @@
         <v>13.597239</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1472.420000</v>
+        <v>1472.42</v>
       </c>
       <c r="CA3" s="1">
-        <v>-915.329000</v>
+        <v>-915.32899999999995</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>48961.192884</v>
+        <v>48961.192883999996</v>
       </c>
       <c r="CD3" s="1">
-        <v>13.600331</v>
+        <v>13.600331000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1830.280000</v>
+        <v>1830.28</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1427.730000</v>
+        <v>-1427.73</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>48788.523607</v>
+        <v>48788.523607000003</v>
       </c>
       <c r="B4" s="1">
         <v>13.552368</v>
       </c>
       <c r="C4" s="1">
-        <v>895.300000</v>
+        <v>895.3</v>
       </c>
       <c r="D4" s="1">
-        <v>-188.234000</v>
+        <v>-188.23400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>48798.585452</v>
+        <v>48798.585451999999</v>
       </c>
       <c r="G4" s="1">
         <v>13.555163</v>
       </c>
       <c r="H4" s="1">
-        <v>913.517000</v>
+        <v>913.51700000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-160.706000</v>
+        <v>-160.70599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>48809.063400</v>
+        <v>48809.063399999999</v>
       </c>
       <c r="L4" s="1">
         <v>13.558073</v>
       </c>
       <c r="M4" s="1">
-        <v>939.050000</v>
+        <v>939.05</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.013000</v>
+        <v>-117.01300000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>48819.569659</v>
+        <v>48819.569659000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>13.560992</v>
+        <v>13.560992000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>946.584000</v>
+        <v>946.58399999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-101.887000</v>
+        <v>-101.887</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>48830.116133</v>
+        <v>48830.116133000003</v>
       </c>
       <c r="V4" s="1">
-        <v>13.563921</v>
+        <v>13.563921000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>953.962000</v>
+        <v>953.96199999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.799500</v>
+        <v>-87.799499999999995</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>48840.898126</v>
       </c>
       <c r="AA4" s="1">
-        <v>13.566916</v>
+        <v>13.566916000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.776000</v>
+        <v>961.77599999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.635300</v>
+        <v>-76.635300000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>48851.465889</v>
+        <v>48851.465888999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>13.569852</v>
+        <v>13.569851999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.837000</v>
+        <v>966.83699999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.610600</v>
+        <v>-74.610600000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>48861.924562</v>
       </c>
       <c r="AK4" s="1">
-        <v>13.572757</v>
+        <v>13.572756999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.302000</v>
+        <v>974.30200000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.575400</v>
+        <v>-79.575400000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>48872.784945</v>
+        <v>48872.784944999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>13.575774</v>
+        <v>13.575773999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.491000</v>
+        <v>982.49099999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.281400</v>
+        <v>-91.281400000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>48883.732134</v>
+        <v>48883.732133999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>13.578814</v>
+        <v>13.578813999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>992.469000</v>
+        <v>992.46900000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.068000</v>
+        <v>-109.068</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>48895.286936</v>
+        <v>48895.286935999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>13.582024</v>
+        <v>13.582024000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.762000</v>
+        <v>-124.762</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>48906.304109</v>
+        <v>48906.304108999997</v>
       </c>
       <c r="BE4" s="1">
         <v>13.585084</v>
       </c>
       <c r="BF4" s="1">
-        <v>1039.670000</v>
+        <v>1039.67</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.785000</v>
+        <v>-196.785</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>48917.408041</v>
+        <v>48917.408041000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>13.588169</v>
+        <v>13.588169000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.440000</v>
+        <v>1106.44</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.484000</v>
+        <v>-313.48399999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>48928.944459</v>
+        <v>48928.944458999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>13.591373</v>
+        <v>13.591373000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.540000</v>
+        <v>1214.54</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-497.535000</v>
+        <v>-497.53500000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>48939.727484</v>
+        <v>48939.727484000003</v>
       </c>
       <c r="BT4" s="1">
         <v>13.594369</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.560000</v>
+        <v>1336.56</v>
       </c>
       <c r="BV4" s="1">
-        <v>-699.826000</v>
+        <v>-699.82600000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>48950.511005</v>
       </c>
       <c r="BY4" s="1">
-        <v>13.597364</v>
+        <v>13.597364000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1472.450000</v>
+        <v>1472.45</v>
       </c>
       <c r="CA4" s="1">
-        <v>-915.149000</v>
+        <v>-915.149</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>48961.735470</v>
+        <v>48961.73547</v>
       </c>
       <c r="CD4" s="1">
         <v>13.600482</v>
       </c>
       <c r="CE4" s="1">
-        <v>1829.400000</v>
+        <v>1829.4</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1426.090000</v>
+        <v>-1426.09</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>48788.865330</v>
+        <v>48788.865330000001</v>
       </c>
       <c r="B5" s="1">
-        <v>13.552463</v>
+        <v>13.552462999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>895.317000</v>
+        <v>895.31700000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-188.269000</v>
+        <v>-188.26900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>48798.929169</v>
+        <v>48798.929169000003</v>
       </c>
       <c r="G5" s="1">
         <v>13.555258</v>
       </c>
       <c r="H5" s="1">
-        <v>913.746000</v>
+        <v>913.74599999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-161.064000</v>
+        <v>-161.06399999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>48809.410104</v>
+        <v>48809.410104000002</v>
       </c>
       <c r="L5" s="1">
-        <v>13.558169</v>
+        <v>13.558168999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>938.780000</v>
+        <v>938.78</v>
       </c>
       <c r="N5" s="1">
-        <v>-116.996000</v>
+        <v>-116.996</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>48820.267566</v>
+        <v>48820.267566000002</v>
       </c>
       <c r="Q5" s="1">
         <v>13.561185</v>
       </c>
       <c r="R5" s="1">
-        <v>946.615000</v>
+        <v>946.61500000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-101.873000</v>
+        <v>-101.873</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>48830.804045</v>
+        <v>48830.804044999997</v>
       </c>
       <c r="V5" s="1">
         <v>13.564112</v>
       </c>
       <c r="W5" s="1">
-        <v>954.099000</v>
+        <v>954.09900000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.707200</v>
+        <v>-87.7072</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>48841.248798</v>
+        <v>48841.248798000001</v>
       </c>
       <c r="AA5" s="1">
         <v>13.567014</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.913000</v>
+        <v>961.91300000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.656800</v>
+        <v>-76.656800000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>48851.811831</v>
+        <v>48851.811830999999</v>
       </c>
       <c r="AF5" s="1">
         <v>13.569948</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.838000</v>
+        <v>966.83799999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.625500</v>
+        <v>-74.625500000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>48862.271764</v>
+        <v>48862.271763999997</v>
       </c>
       <c r="AK5" s="1">
         <v>13.572853</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.256000</v>
+        <v>974.25599999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.571600</v>
+        <v>-79.571600000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>48873.455029</v>
+        <v>48873.455028999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>13.575960</v>
+        <v>13.57596</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.476000</v>
+        <v>982.476</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.259900</v>
+        <v>-91.259900000000002</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>48884.411653</v>
+        <v>48884.411653000003</v>
       </c>
       <c r="AU5" s="1">
         <v>13.579003</v>
       </c>
       <c r="AV5" s="1">
-        <v>992.455000</v>
+        <v>992.45500000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.046000</v>
+        <v>-109.04600000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>48895.695150</v>
+        <v>48895.69515</v>
       </c>
       <c r="AZ5" s="1">
         <v>13.582138</v>
       </c>
       <c r="BA5" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.744000</v>
+        <v>-124.744</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>48906.690455</v>
+        <v>48906.690455000004</v>
       </c>
       <c r="BE5" s="1">
-        <v>13.585192</v>
+        <v>13.585191999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.749000</v>
+        <v>-196.749</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>48917.782489</v>
+        <v>48917.782488999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>13.588273</v>
+        <v>13.588272999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.430000</v>
+        <v>1106.43</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.500000</v>
+        <v>-313.5</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>48929.341259</v>
+        <v>48929.341259000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>13.591484</v>
+        <v>13.591483999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.550000</v>
+        <v>1214.55</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-497.551000</v>
+        <v>-497.55099999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>48940.158508</v>
@@ -1462,679 +1878,679 @@
         <v>13.594488</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.520000</v>
+        <v>1336.52</v>
       </c>
       <c r="BV5" s="1">
-        <v>-699.796000</v>
+        <v>-699.79600000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>48950.969816</v>
+        <v>48950.969815999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>13.597492</v>
+        <v>13.597492000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1472.300000</v>
+        <v>1472.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-915.195000</v>
+        <v>-915.19500000000005</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>48962.273134</v>
+        <v>48962.273134000003</v>
       </c>
       <c r="CD5" s="1">
         <v>13.600631</v>
       </c>
       <c r="CE5" s="1">
-        <v>1829.250000</v>
+        <v>1829.25</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1428.230000</v>
+        <v>-1428.23</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>48789.210531</v>
+        <v>48789.210530999997</v>
       </c>
       <c r="B6" s="1">
-        <v>13.552558</v>
+        <v>13.552557999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>895.203000</v>
+        <v>895.20299999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-188.264000</v>
+        <v>-188.26400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>48799.272869</v>
       </c>
       <c r="G6" s="1">
-        <v>13.555354</v>
+        <v>13.555353999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>913.878000</v>
+        <v>913.87800000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.025000</v>
+        <v>-161.02500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>48810.099543</v>
+        <v>48810.099542999997</v>
       </c>
       <c r="L6" s="1">
         <v>13.558361</v>
       </c>
       <c r="M6" s="1">
-        <v>938.933000</v>
+        <v>938.93299999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.090000</v>
+        <v>-117.09</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>48820.616713</v>
+        <v>48820.616713000003</v>
       </c>
       <c r="Q6" s="1">
         <v>13.561282</v>
       </c>
       <c r="R6" s="1">
-        <v>946.584000</v>
+        <v>946.58399999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-101.917000</v>
+        <v>-101.917</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>48831.151775</v>
+        <v>48831.151774999998</v>
       </c>
       <c r="V6" s="1">
         <v>13.564209</v>
       </c>
       <c r="W6" s="1">
-        <v>953.968000</v>
+        <v>953.96799999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.672600</v>
+        <v>-87.672600000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>48841.595538</v>
+        <v>48841.595538000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>13.567110</v>
+        <v>13.56711</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.821000</v>
+        <v>961.82100000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.635100</v>
+        <v>-76.635099999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>48852.476737</v>
+        <v>48852.476736999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>13.570132</v>
+        <v>13.570131999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.851000</v>
+        <v>966.851</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.660600</v>
+        <v>-74.660600000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>48862.934387</v>
+        <v>48862.934387000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.573037</v>
+        <v>13.573036999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.275000</v>
+        <v>974.27499999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.571800</v>
+        <v>-79.571799999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>48873.895020</v>
+        <v>48873.895020000004</v>
       </c>
       <c r="AP6" s="1">
         <v>13.576082</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.489000</v>
+        <v>982.48900000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.284400</v>
+        <v>-91.284400000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>48884.862557</v>
       </c>
       <c r="AU6" s="1">
-        <v>13.579128</v>
+        <v>13.579128000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>992.440000</v>
+        <v>992.44</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.063000</v>
+        <v>-109.063</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>48896.070117</v>
+        <v>48896.070117000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>13.582242</v>
+        <v>13.582242000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.746000</v>
+        <v>-124.746</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>48907.052039</v>
+        <v>48907.052039000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>13.585292</v>
+        <v>13.585292000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.781000</v>
+        <v>-196.78100000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>48918.159450</v>
+        <v>48918.159449999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>13.588378</v>
+        <v>13.588378000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.440000</v>
+        <v>1106.44</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.480000</v>
+        <v>-313.48</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>48929.762857</v>
+        <v>48929.762857000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>13.591601</v>
+        <v>13.591601000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.550000</v>
+        <v>1214.55</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-497.597000</v>
+        <v>-497.59699999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>48940.569231</v>
+        <v>48940.569231000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>13.594603</v>
+        <v>13.594602999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.560000</v>
+        <v>1336.56</v>
       </c>
       <c r="BV6" s="1">
-        <v>-699.727000</v>
+        <v>-699.72699999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>48951.413724</v>
+        <v>48951.413723999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>13.597615</v>
+        <v>13.597614999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1472.240000</v>
+        <v>1472.24</v>
       </c>
       <c r="CA6" s="1">
-        <v>-915.265000</v>
+        <v>-915.26499999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>48962.811827</v>
+        <v>48962.811826999998</v>
       </c>
       <c r="CD6" s="1">
         <v>13.600781</v>
       </c>
       <c r="CE6" s="1">
-        <v>1830.100000</v>
+        <v>1830.1</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1426.550000</v>
+        <v>-1426.55</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>48789.892531</v>
+        <v>48789.892530999998</v>
       </c>
       <c r="B7" s="1">
-        <v>13.552748</v>
+        <v>13.552747999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>895.258000</v>
+        <v>895.25800000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-188.121000</v>
+        <v>-188.12100000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>48799.962805</v>
+        <v>48799.962805000003</v>
       </c>
       <c r="G7" s="1">
         <v>13.555545</v>
       </c>
       <c r="H7" s="1">
-        <v>913.492000</v>
+        <v>913.49199999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-161.193000</v>
+        <v>-161.19300000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>48810.445256</v>
+        <v>48810.445255999999</v>
       </c>
       <c r="L7" s="1">
-        <v>13.558457</v>
+        <v>13.558457000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>938.956000</v>
+        <v>938.95600000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.952000</v>
+        <v>-116.952</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>48820.962921</v>
+        <v>48820.962920999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>13.561379</v>
+        <v>13.561379000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.571000</v>
+        <v>946.57100000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-101.940000</v>
+        <v>-101.94</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>48831.491995</v>
+        <v>48831.491994999997</v>
       </c>
       <c r="V7" s="1">
-        <v>13.564303</v>
+        <v>13.564303000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>954.070000</v>
+        <v>954.07</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.750100</v>
+        <v>-87.750100000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>48842.254225</v>
+        <v>48842.254224999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>13.567293</v>
+        <v>13.567292999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.837000</v>
+        <v>961.83699999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.639600</v>
+        <v>-76.639600000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>48852.841296</v>
+        <v>48852.841295999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>13.570234</v>
+        <v>13.570233999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.911000</v>
+        <v>966.91099999999994</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.695600</v>
+        <v>-74.695599999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>48863.317827</v>
+        <v>48863.317826999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>13.573144</v>
+        <v>13.573143999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.264000</v>
+        <v>974.26400000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.573600</v>
+        <v>-79.573599999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>48874.254082</v>
+        <v>48874.254081999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>13.576182</v>
+        <v>13.576181999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.495000</v>
+        <v>982.495</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.276300</v>
+        <v>-91.276300000000006</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>48885.226581</v>
+        <v>48885.226581000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>13.579230</v>
+        <v>13.579230000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>992.454000</v>
+        <v>992.45399999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.087000</v>
+        <v>-109.087</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>48896.461957</v>
       </c>
       <c r="AZ7" s="1">
-        <v>13.582351</v>
+        <v>13.582350999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.747000</v>
+        <v>-124.747</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>48907.471191</v>
+        <v>48907.471190999997</v>
       </c>
       <c r="BE7" s="1">
         <v>13.585409</v>
       </c>
       <c r="BF7" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.781000</v>
+        <v>-196.78100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>48918.930740</v>
+        <v>48918.930740000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>13.588592</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.410000</v>
+        <v>1106.4100000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.483000</v>
+        <v>-313.483</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>48930.160650</v>
+        <v>48930.160649999998</v>
       </c>
       <c r="BO7" s="1">
         <v>13.591711</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-497.548000</v>
+        <v>-497.548</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>48940.999722</v>
       </c>
       <c r="BT7" s="1">
-        <v>13.594722</v>
+        <v>13.594722000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.480000</v>
+        <v>1336.48</v>
       </c>
       <c r="BV7" s="1">
-        <v>-699.708000</v>
+        <v>-699.70799999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>48951.873020</v>
+        <v>48951.873019999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>13.597743</v>
+        <v>13.597742999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1472.330000</v>
+        <v>1472.33</v>
       </c>
       <c r="CA7" s="1">
-        <v>-915.310000</v>
+        <v>-915.31</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>48963.351438</v>
+        <v>48963.351437999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.600931</v>
+        <v>13.600930999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1829.110000</v>
+        <v>1829.11</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1427.700000</v>
+        <v>-1427.7</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>48790.234769</v>
+        <v>48790.234769000002</v>
       </c>
       <c r="B8" s="1">
-        <v>13.552843</v>
+        <v>13.552842999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>895.331000</v>
+        <v>895.33100000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-188.141000</v>
+        <v>-188.14099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>48800.305077</v>
+        <v>48800.305076999997</v>
       </c>
       <c r="G8" s="1">
-        <v>13.555640</v>
+        <v>13.55564</v>
       </c>
       <c r="H8" s="1">
-        <v>913.432000</v>
+        <v>913.43200000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-161.346000</v>
+        <v>-161.346</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>48810.794471</v>
+        <v>48810.794471000001</v>
       </c>
       <c r="L8" s="1">
-        <v>13.558554</v>
+        <v>13.558554000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>938.855000</v>
+        <v>938.85500000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.921000</v>
+        <v>-116.92100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>48821.621608</v>
+        <v>48821.621608000001</v>
       </c>
       <c r="Q8" s="1">
         <v>13.561562</v>
       </c>
       <c r="R8" s="1">
-        <v>946.566000</v>
+        <v>946.56600000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-101.898000</v>
+        <v>-101.898</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>48832.149692</v>
+        <v>48832.149691999999</v>
       </c>
       <c r="V8" s="1">
         <v>13.564486</v>
       </c>
       <c r="W8" s="1">
-        <v>953.908000</v>
+        <v>953.90800000000002</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.699000</v>
+        <v>-87.698999999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>48842.642594</v>
+        <v>48842.642593999997</v>
       </c>
       <c r="AA8" s="1">
         <v>13.567401</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.864000</v>
+        <v>961.86400000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.647700</v>
+        <v>-76.6477</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>48853.184528</v>
+        <v>48853.184527999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>13.570329</v>
+        <v>13.570328999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.826000</v>
+        <v>966.82600000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.595900</v>
+        <v>-74.5959</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>48863.664496</v>
+        <v>48863.664495999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>13.573240</v>
+        <v>13.57324</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.281000</v>
+        <v>974.28099999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.550600</v>
+        <v>-79.550600000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>48874.617154</v>
@@ -2143,73 +2559,73 @@
         <v>13.576283</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.495000</v>
+        <v>982.495</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.271000</v>
+        <v>-91.271000000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>48885.846083</v>
+        <v>48885.846082999997</v>
       </c>
       <c r="AU8" s="1">
         <v>13.579402</v>
       </c>
       <c r="AV8" s="1">
-        <v>992.465000</v>
+        <v>992.46500000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.059000</v>
+        <v>-109.059</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>48896.877604</v>
+        <v>48896.877604000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>13.582466</v>
       </c>
       <c r="BA8" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.771000</v>
+        <v>-124.771</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>48907.777191</v>
+        <v>48907.777191000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>13.585494</v>
+        <v>13.585494000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1039.670000</v>
+        <v>1039.67</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.768000</v>
+        <v>-196.768</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>48919.312181</v>
+        <v>48919.312181000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>13.588698</v>
+        <v>13.588698000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.410000</v>
+        <v>1106.4100000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.492000</v>
+        <v>-313.49200000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>48930.578814</v>
@@ -2218,90 +2634,90 @@
         <v>13.591827</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.540000</v>
+        <v>1214.54</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-497.554000</v>
+        <v>-497.55399999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>48941.427771</v>
+        <v>48941.427771000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>13.594841</v>
+        <v>13.594841000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.510000</v>
+        <v>1336.51</v>
       </c>
       <c r="BV8" s="1">
-        <v>-699.652000</v>
+        <v>-699.65200000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>48952.644796</v>
       </c>
       <c r="BY8" s="1">
-        <v>13.597957</v>
+        <v>13.597956999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1472.320000</v>
+        <v>1472.32</v>
       </c>
       <c r="CA8" s="1">
-        <v>-915.298000</v>
+        <v>-915.298</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>48963.893067</v>
+        <v>48963.893066999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.601081</v>
+        <v>13.601081000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1830.590000</v>
+        <v>1830.59</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1427.530000</v>
+        <v>-1427.53</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>48790.577046</v>
+        <v>48790.577045999999</v>
       </c>
       <c r="B9" s="1">
-        <v>13.552938</v>
+        <v>13.552937999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>895.271000</v>
+        <v>895.27099999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-187.974000</v>
+        <v>-187.97399999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>48800.656708</v>
+        <v>48800.656708000002</v>
       </c>
       <c r="G9" s="1">
         <v>13.555738</v>
       </c>
       <c r="H9" s="1">
-        <v>913.984000</v>
+        <v>913.98400000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-160.840000</v>
+        <v>-160.84</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>48811.447173</v>
@@ -2310,13 +2726,13 @@
         <v>13.558735</v>
       </c>
       <c r="M9" s="1">
-        <v>938.683000</v>
+        <v>938.68299999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.939000</v>
+        <v>-116.93899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>48822.008985</v>
@@ -2325,617 +2741,617 @@
         <v>13.561669</v>
       </c>
       <c r="R9" s="1">
-        <v>946.536000</v>
+        <v>946.53599999999994</v>
       </c>
       <c r="S9" s="1">
-        <v>-101.853000</v>
+        <v>-101.85299999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>48832.522681</v>
+        <v>48832.522681000002</v>
       </c>
       <c r="V9" s="1">
-        <v>13.564590</v>
+        <v>13.564590000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>953.980000</v>
+        <v>953.98</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.770400</v>
+        <v>-87.770399999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>48842.991243</v>
+        <v>48842.991242999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>13.567498</v>
+        <v>13.567498000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.861000</v>
+        <v>961.86099999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.655900</v>
+        <v>-76.655900000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>48853.529246</v>
+        <v>48853.529245999998</v>
       </c>
       <c r="AF9" s="1">
         <v>13.570425</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.836000</v>
+        <v>966.83600000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.665300</v>
+        <v>-74.665300000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>48864.019668</v>
+        <v>48864.019668000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.573339</v>
+        <v>13.573339000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.251000</v>
+        <v>974.25099999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.553200</v>
+        <v>-79.553200000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>48875.039284</v>
+        <v>48875.039283999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.576400</v>
+        <v>13.5764</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.479000</v>
+        <v>982.47900000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.296500</v>
+        <v>-91.296499999999995</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>48885.973555</v>
+        <v>48885.973554999997</v>
       </c>
       <c r="AU9" s="1">
         <v>13.579437</v>
       </c>
       <c r="AV9" s="1">
-        <v>992.481000</v>
+        <v>992.48099999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.049000</v>
+        <v>-109.04900000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>48897.179173</v>
+        <v>48897.179172999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>13.582550</v>
+        <v>13.582549999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.763000</v>
+        <v>-124.76300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>48908.137317</v>
+        <v>48908.137317000001</v>
       </c>
       <c r="BE9" s="1">
         <v>13.585594</v>
       </c>
       <c r="BF9" s="1">
-        <v>1039.640000</v>
+        <v>1039.6400000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.777000</v>
+        <v>-196.77699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>48919.681174</v>
+        <v>48919.681173999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>13.588800</v>
+        <v>13.588800000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.420000</v>
+        <v>1106.42</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.511000</v>
+        <v>-313.51100000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>48930.976567</v>
+        <v>48930.976566999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>13.591938</v>
+        <v>13.591938000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-497.534000</v>
+        <v>-497.53399999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>48941.851849</v>
+        <v>48941.851848999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>13.594959</v>
+        <v>13.594958999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.500000</v>
+        <v>1336.5</v>
       </c>
       <c r="BV9" s="1">
-        <v>-699.593000</v>
+        <v>-699.59299999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>48952.769787</v>
+        <v>48952.769786999997</v>
       </c>
       <c r="BY9" s="1">
         <v>13.597992</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1472.350000</v>
+        <v>1472.35</v>
       </c>
       <c r="CA9" s="1">
-        <v>-915.324000</v>
+        <v>-915.32399999999996</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>48964.429767</v>
+        <v>48964.429767000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>13.601230</v>
+        <v>13.601229999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1829.110000</v>
+        <v>1829.11</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1426.510000</v>
+        <v>-1426.51</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>48791.238699</v>
+        <v>48791.238699000001</v>
       </c>
       <c r="B10" s="1">
         <v>13.553122</v>
       </c>
       <c r="C10" s="1">
-        <v>895.301000</v>
+        <v>895.30100000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-188.199000</v>
+        <v>-188.19900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>48801.318372</v>
+        <v>48801.318372000002</v>
       </c>
       <c r="G10" s="1">
-        <v>13.555922</v>
+        <v>13.555922000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>913.751000</v>
+        <v>913.75099999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-160.629000</v>
+        <v>-160.62899999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>48811.832240</v>
+        <v>48811.832240000003</v>
       </c>
       <c r="L10" s="1">
         <v>13.558842</v>
       </c>
       <c r="M10" s="1">
-        <v>938.942000</v>
+        <v>938.94200000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.055000</v>
+        <v>-117.05500000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>48822.358168</v>
+        <v>48822.358167999999</v>
       </c>
       <c r="Q10" s="1">
         <v>13.561766</v>
       </c>
       <c r="R10" s="1">
-        <v>946.605000</v>
+        <v>946.60500000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-101.881000</v>
+        <v>-101.881</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>48832.866937</v>
+        <v>48832.866936999999</v>
       </c>
       <c r="V10" s="1">
-        <v>13.564685</v>
+        <v>13.564685000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>953.968000</v>
+        <v>953.96799999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.823300</v>
+        <v>-87.823300000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>48843.336460</v>
+        <v>48843.336459999999</v>
       </c>
       <c r="AA10" s="1">
         <v>13.567593</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.875000</v>
+        <v>961.875</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.570800</v>
+        <v>-76.570800000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>48853.946910</v>
+        <v>48853.946909999999</v>
       </c>
       <c r="AF10" s="1">
         <v>13.570541</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.909000</v>
+        <v>966.90899999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.592800</v>
+        <v>-74.592799999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>48864.441269</v>
+        <v>48864.441269000003</v>
       </c>
       <c r="AK10" s="1">
         <v>13.573456</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.285000</v>
+        <v>974.28499999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.565100</v>
+        <v>-79.565100000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>48875.332882</v>
+        <v>48875.332882000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>13.576481</v>
+        <v>13.576480999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.503000</v>
+        <v>982.50300000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.281200</v>
+        <v>-91.281199999999998</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>48886.352035</v>
+        <v>48886.352035000004</v>
       </c>
       <c r="AU10" s="1">
         <v>13.579542</v>
       </c>
       <c r="AV10" s="1">
-        <v>992.450000</v>
+        <v>992.45</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.059000</v>
+        <v>-109.059</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>48897.538276</v>
+        <v>48897.538275999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>13.582650</v>
+        <v>13.582649999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.756000</v>
+        <v>-124.756</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>48908.497878</v>
+        <v>48908.497878000002</v>
       </c>
       <c r="BE10" s="1">
         <v>13.585694</v>
       </c>
       <c r="BF10" s="1">
-        <v>1039.670000</v>
+        <v>1039.67</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.785000</v>
+        <v>-196.785</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>48920.457446</v>
       </c>
       <c r="BJ10" s="1">
-        <v>13.589016</v>
+        <v>13.589016000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.450000</v>
+        <v>1106.45</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.490000</v>
+        <v>-313.49</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>48931.398167</v>
+        <v>48931.398166999999</v>
       </c>
       <c r="BO10" s="1">
         <v>13.592055</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-497.582000</v>
+        <v>-497.58199999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>48942.266041</v>
+        <v>48942.266041000003</v>
       </c>
       <c r="BT10" s="1">
         <v>13.595074</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.500000</v>
+        <v>1336.5</v>
       </c>
       <c r="BV10" s="1">
-        <v>-699.580000</v>
+        <v>-699.58</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>48953.190890</v>
+        <v>48953.190889999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.598109</v>
+        <v>13.598108999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1472.340000</v>
+        <v>1472.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-915.178000</v>
+        <v>-915.178</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>48964.974378</v>
+        <v>48964.974377999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>13.601382</v>
+        <v>13.601381999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1829.680000</v>
+        <v>1829.68</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1428.440000</v>
+        <v>-1428.44</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>48791.599770</v>
+        <v>48791.599770000001</v>
       </c>
       <c r="B11" s="1">
         <v>13.553222</v>
       </c>
       <c r="C11" s="1">
-        <v>895.353000</v>
+        <v>895.35299999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-187.827000</v>
+        <v>-187.827</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>48801.688882</v>
+        <v>48801.688882000002</v>
       </c>
       <c r="G11" s="1">
         <v>13.556025</v>
       </c>
       <c r="H11" s="1">
-        <v>913.973000</v>
+        <v>913.97299999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-161.096000</v>
+        <v>-161.096</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>48812.176292</v>
+        <v>48812.176291999996</v>
       </c>
       <c r="L11" s="1">
-        <v>13.558938</v>
+        <v>13.558937999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>938.888000</v>
+        <v>938.88800000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-116.944000</v>
+        <v>-116.944</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>48822.705399</v>
+        <v>48822.705398999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>13.561863</v>
+        <v>13.561863000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>946.543000</v>
+        <v>946.54300000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-101.917000</v>
+        <v>-101.917</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>48833.210634</v>
+        <v>48833.210634000003</v>
       </c>
       <c r="V11" s="1">
         <v>13.564781</v>
       </c>
       <c r="W11" s="1">
-        <v>954.008000</v>
+        <v>954.00800000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.728000</v>
+        <v>-87.727999999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>48843.763515</v>
+        <v>48843.763514999999</v>
       </c>
       <c r="AA11" s="1">
         <v>13.567712</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.900000</v>
+        <v>961.9</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.653200</v>
+        <v>-76.653199999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>48854.221203</v>
+        <v>48854.221203000001</v>
       </c>
       <c r="AF11" s="1">
         <v>13.570617</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.824000</v>
+        <v>966.82399999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.679200</v>
+        <v>-74.679199999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>48864.710894</v>
+        <v>48864.710894000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>13.573531</v>
+        <v>13.573530999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.270000</v>
+        <v>974.27</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.569400</v>
+        <v>-79.569400000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>48875.695954</v>
+        <v>48875.695954000003</v>
       </c>
       <c r="AP11" s="1">
         <v>13.576582</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.485000</v>
+        <v>982.48500000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.281800</v>
+        <v>-91.281800000000004</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>48886.719538</v>
+        <v>48886.719537999998</v>
       </c>
       <c r="AU11" s="1">
         <v>13.579644</v>
       </c>
       <c r="AV11" s="1">
-        <v>992.444000</v>
+        <v>992.44399999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.073000</v>
+        <v>-109.07299999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>48897.895891</v>
@@ -2944,255 +3360,255 @@
         <v>13.582749</v>
       </c>
       <c r="BA11" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.747000</v>
+        <v>-124.747</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>48909.220052</v>
+        <v>48909.220051999997</v>
       </c>
       <c r="BE11" s="1">
         <v>13.585894</v>
       </c>
       <c r="BF11" s="1">
-        <v>1039.680000</v>
+        <v>1039.68</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.781000</v>
+        <v>-196.78100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>48920.835366</v>
+        <v>48920.835365999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.589121</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.450000</v>
+        <v>1106.45</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.495000</v>
+        <v>-313.495</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>48931.792488</v>
+        <v>48931.792487999999</v>
       </c>
       <c r="BO11" s="1">
         <v>13.592165</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.550000</v>
+        <v>1214.55</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-497.522000</v>
+        <v>-497.52199999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>48942.695545</v>
+        <v>48942.695545000002</v>
       </c>
       <c r="BT11" s="1">
         <v>13.595193</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.520000</v>
+        <v>1336.52</v>
       </c>
       <c r="BV11" s="1">
-        <v>-699.554000</v>
+        <v>-699.55399999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>48953.923482</v>
+        <v>48953.923481999998</v>
       </c>
       <c r="BY11" s="1">
         <v>13.598312</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.260000</v>
+        <v>1472.26</v>
       </c>
       <c r="CA11" s="1">
-        <v>-915.294000</v>
+        <v>-915.29399999999998</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>48965.826475</v>
+        <v>48965.826475000002</v>
       </c>
       <c r="CD11" s="1">
         <v>13.601618</v>
       </c>
       <c r="CE11" s="1">
-        <v>1828.900000</v>
+        <v>1828.9</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1426.890000</v>
+        <v>-1426.89</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>48791.945007</v>
+        <v>48791.945007000002</v>
       </c>
       <c r="B12" s="1">
-        <v>13.553318</v>
+        <v>13.553318000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>895.250000</v>
+        <v>895.25</v>
       </c>
       <c r="D12" s="1">
-        <v>-187.817000</v>
+        <v>-187.81700000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>48802.034595</v>
+        <v>48802.034594999997</v>
       </c>
       <c r="G12" s="1">
-        <v>13.556121</v>
+        <v>13.556120999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>913.820000</v>
+        <v>913.82</v>
       </c>
       <c r="I12" s="1">
-        <v>-160.720000</v>
+        <v>-160.72</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>48812.523527</v>
+        <v>48812.523526999998</v>
       </c>
       <c r="L12" s="1">
         <v>13.559034</v>
       </c>
       <c r="M12" s="1">
-        <v>938.749000</v>
+        <v>938.74900000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.068000</v>
+        <v>-117.068</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>48823.122998</v>
+        <v>48823.122997999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>13.561979</v>
+        <v>13.561978999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>946.571000</v>
+        <v>946.57100000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-101.905000</v>
+        <v>-101.905</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>48833.633224</v>
+        <v>48833.633223999997</v>
       </c>
       <c r="V12" s="1">
-        <v>13.564898</v>
+        <v>13.564897999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>953.935000</v>
+        <v>953.93499999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.598000</v>
+        <v>-87.597999999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>48844.051690</v>
+        <v>48844.05169</v>
       </c>
       <c r="AA12" s="1">
-        <v>13.567792</v>
+        <v>13.567792000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.909000</v>
+        <v>961.90899999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.685300</v>
+        <v>-76.685299999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>48854.566381</v>
+        <v>48854.566380999997</v>
       </c>
       <c r="AF12" s="1">
         <v>13.570713</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.720000</v>
+        <v>966.72</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.588300</v>
+        <v>-74.588300000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>48865.062751</v>
+        <v>48865.062750999998</v>
       </c>
       <c r="AK12" s="1">
         <v>13.573629</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.275000</v>
+        <v>974.27499999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.562700</v>
+        <v>-79.562700000000007</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>48876.056086</v>
+        <v>48876.056085999997</v>
       </c>
       <c r="AP12" s="1">
         <v>13.576682</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.504000</v>
+        <v>982.50400000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.298400</v>
+        <v>-91.298400000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>48887.446674</v>
+        <v>48887.446673999999</v>
       </c>
       <c r="AU12" s="1">
         <v>13.579846</v>
       </c>
       <c r="AV12" s="1">
-        <v>992.454000</v>
+        <v>992.45399999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.072000</v>
+        <v>-109.072</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>48898.612642</v>
@@ -3201,225 +3617,225 @@
         <v>13.582948</v>
       </c>
       <c r="BA12" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.744000</v>
+        <v>-124.744</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>48909.582133</v>
+        <v>48909.582133000004</v>
       </c>
       <c r="BE12" s="1">
         <v>13.585995</v>
       </c>
       <c r="BF12" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.788000</v>
+        <v>-196.78800000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>48921.209877</v>
+        <v>48921.209877000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>13.589225</v>
+        <v>13.589225000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.450000</v>
+        <v>1106.45</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.490000</v>
+        <v>-313.49</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>48932.209621</v>
+        <v>48932.209621000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>13.592280</v>
+        <v>13.592280000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.570000</v>
+        <v>1214.57</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-497.574000</v>
+        <v>-497.57400000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>48943.420407</v>
+        <v>48943.420406999998</v>
       </c>
       <c r="BT12" s="1">
         <v>13.595395</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.420000</v>
+        <v>1336.42</v>
       </c>
       <c r="BV12" s="1">
-        <v>-699.507000</v>
+        <v>-699.50699999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>48954.035082</v>
+        <v>48954.035082000002</v>
       </c>
       <c r="BY12" s="1">
         <v>13.598343</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1472.360000</v>
+        <v>1472.36</v>
       </c>
       <c r="CA12" s="1">
-        <v>-915.327000</v>
+        <v>-915.327</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>48966.051855</v>
+        <v>48966.051854999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>13.601681</v>
+        <v>13.601680999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1829.200000</v>
+        <v>1829.2</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1427.210000</v>
+        <v>-1427.21</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>48792.288704</v>
+        <v>48792.288703999999</v>
       </c>
       <c r="B13" s="1">
         <v>13.553414</v>
       </c>
       <c r="C13" s="1">
-        <v>895.122000</v>
+        <v>895.12199999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-187.914000</v>
+        <v>-187.91399999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>48802.550433</v>
+        <v>48802.550432999997</v>
       </c>
       <c r="G13" s="1">
-        <v>13.556264</v>
+        <v>13.556264000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>913.405000</v>
+        <v>913.40499999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-160.776000</v>
+        <v>-160.77600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>48812.956531</v>
+        <v>48812.956531000003</v>
       </c>
       <c r="L13" s="1">
-        <v>13.559155</v>
+        <v>13.559155000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>938.790000</v>
+        <v>938.79</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.996000</v>
+        <v>-116.996</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>48823.405222</v>
+        <v>48823.405222000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.562057</v>
+        <v>13.562056999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>946.548000</v>
+        <v>946.548</v>
       </c>
       <c r="S13" s="1">
-        <v>-101.927000</v>
+        <v>-101.92700000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>48833.908008</v>
+        <v>48833.908007999999</v>
       </c>
       <c r="V13" s="1">
-        <v>13.564974</v>
+        <v>13.564973999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>953.954000</v>
+        <v>953.95399999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.662600</v>
+        <v>-87.662599999999998</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>48844.398890</v>
+        <v>48844.398889999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>13.567889</v>
+        <v>13.567888999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.899000</v>
+        <v>961.899</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.626600</v>
+        <v>-76.626599999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>48854.911106</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.570809</v>
+        <v>13.570809000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.838000</v>
+        <v>966.83799999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.639400</v>
+        <v>-74.639399999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>48865.411938</v>
+        <v>48865.411937999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>13.573726</v>
+        <v>13.573726000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.288000</v>
+        <v>974.28800000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.563000</v>
+        <v>-79.563000000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>48876.783184</v>
@@ -3428,632 +3844,632 @@
         <v>13.576884</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.480000</v>
+        <v>982.48</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.286100</v>
+        <v>-91.286100000000005</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>48887.839504</v>
+        <v>48887.839504000003</v>
       </c>
       <c r="AU13" s="1">
         <v>13.579955</v>
       </c>
       <c r="AV13" s="1">
-        <v>992.453000</v>
+        <v>992.45299999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.067000</v>
+        <v>-109.06699999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>48898.973201</v>
+        <v>48898.973201000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>13.583048</v>
       </c>
       <c r="BA13" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.745000</v>
+        <v>-124.745</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>48909.941732</v>
+        <v>48909.941731999999</v>
       </c>
       <c r="BE13" s="1">
         <v>13.586095</v>
       </c>
       <c r="BF13" s="1">
-        <v>1039.640000</v>
+        <v>1039.6400000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.790000</v>
+        <v>-196.79</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>48921.922101</v>
+        <v>48921.922100999996</v>
       </c>
       <c r="BJ13" s="1">
         <v>13.589423</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.440000</v>
+        <v>1106.44</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.481000</v>
+        <v>-313.48099999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>48932.923366</v>
+        <v>48932.923366000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.592479</v>
+        <v>13.592479000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.530000</v>
+        <v>1214.53</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-497.593000</v>
+        <v>-497.59300000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>48943.539775</v>
+        <v>48943.539774999997</v>
       </c>
       <c r="BT13" s="1">
         <v>13.595428</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="BV13" s="1">
-        <v>-699.496000</v>
+        <v>-699.49599999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>48954.469578</v>
+        <v>48954.469577999997</v>
       </c>
       <c r="BY13" s="1">
         <v>13.598464</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.410000</v>
+        <v>1472.41</v>
       </c>
       <c r="CA13" s="1">
-        <v>-915.242000</v>
+        <v>-915.24199999999996</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>48966.569513</v>
+        <v>48966.569513000002</v>
       </c>
       <c r="CD13" s="1">
         <v>13.601825</v>
       </c>
       <c r="CE13" s="1">
-        <v>1829.500000</v>
+        <v>1829.5</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1428.080000</v>
+        <v>-1428.08</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>48792.711826</v>
+        <v>48792.711825999999</v>
       </c>
       <c r="B14" s="1">
         <v>13.553531</v>
       </c>
       <c r="C14" s="1">
-        <v>895.262000</v>
+        <v>895.26199999999994</v>
       </c>
       <c r="D14" s="1">
-        <v>-187.927000</v>
+        <v>-187.92699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>48802.724561</v>
+        <v>48802.724561000003</v>
       </c>
       <c r="G14" s="1">
         <v>13.556312</v>
       </c>
       <c r="H14" s="1">
-        <v>914.006000</v>
+        <v>914.00599999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-160.789000</v>
+        <v>-160.78899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>48813.234756</v>
+        <v>48813.234755999998</v>
       </c>
       <c r="L14" s="1">
         <v>13.559232</v>
       </c>
       <c r="M14" s="1">
-        <v>938.739000</v>
+        <v>938.73900000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.927000</v>
+        <v>-116.92700000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>48823.753941</v>
+        <v>48823.753941000003</v>
       </c>
       <c r="Q14" s="1">
         <v>13.562154</v>
       </c>
       <c r="R14" s="1">
-        <v>946.532000</v>
+        <v>946.53200000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-101.884000</v>
+        <v>-101.884</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>48834.251735</v>
+        <v>48834.251734999998</v>
       </c>
       <c r="V14" s="1">
-        <v>13.565070</v>
+        <v>13.56507</v>
       </c>
       <c r="W14" s="1">
-        <v>953.979000</v>
+        <v>953.97900000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.697900</v>
+        <v>-87.697900000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>48844.748606</v>
+        <v>48844.748606000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.567986</v>
+        <v>13.567985999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.891000</v>
+        <v>961.89099999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.603500</v>
+        <v>-76.603499999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>48855.597068</v>
+        <v>48855.597068000003</v>
       </c>
       <c r="AF14" s="1">
         <v>13.570999</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.786000</v>
+        <v>966.78599999999994</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.682200</v>
+        <v>-74.682199999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>48866.110765</v>
+        <v>48866.110764999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>13.573920</v>
+        <v>13.573919999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.279000</v>
+        <v>974.279</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.569300</v>
+        <v>-79.569299999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>48877.162622</v>
+        <v>48877.162622000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>13.576990</v>
+        <v>13.57699</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.481000</v>
+        <v>982.48099999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.287800</v>
+        <v>-91.287800000000004</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>48888.202577</v>
+        <v>48888.202576999996</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.580056</v>
+        <v>13.580056000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>992.473000</v>
+        <v>992.47299999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.079000</v>
+        <v>-109.07899999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>48899.332339</v>
+        <v>48899.332339000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>13.583148</v>
       </c>
       <c r="BA14" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.743000</v>
+        <v>-124.74299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>48910.609842</v>
+        <v>48910.609841999998</v>
       </c>
       <c r="BE14" s="1">
         <v>13.586281</v>
       </c>
       <c r="BF14" s="1">
-        <v>1039.670000</v>
+        <v>1039.67</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.779000</v>
+        <v>-196.779</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>48922.361099</v>
+        <v>48922.361099000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.589545</v>
+        <v>13.589544999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.430000</v>
+        <v>1106.43</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.488000</v>
+        <v>-313.488</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>48933.047385</v>
+        <v>48933.047384999998</v>
       </c>
       <c r="BO14" s="1">
         <v>13.592513</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-497.575000</v>
+        <v>-497.57499999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>48943.978231</v>
+        <v>48943.978231000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>13.595550</v>
+        <v>13.595549999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.430000</v>
+        <v>1336.43</v>
       </c>
       <c r="BV14" s="1">
-        <v>-699.429000</v>
+        <v>-699.42899999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>48954.890679</v>
+        <v>48954.890678999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>13.598581</v>
+        <v>13.598580999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="CA14" s="1">
-        <v>-915.256000</v>
+        <v>-915.25599999999997</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>48967.086840</v>
+        <v>48967.086840000004</v>
       </c>
       <c r="CD14" s="1">
         <v>13.601969</v>
       </c>
       <c r="CE14" s="1">
-        <v>1829.420000</v>
+        <v>1829.42</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1428.090000</v>
+        <v>-1428.09</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>48792.987565</v>
+        <v>48792.987565000003</v>
       </c>
       <c r="B15" s="1">
-        <v>13.553608</v>
+        <v>13.553608000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>895.181000</v>
+        <v>895.18100000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-188.041000</v>
+        <v>-188.041</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>48803.071265</v>
+        <v>48803.071264999999</v>
       </c>
       <c r="G15" s="1">
         <v>13.556409</v>
       </c>
       <c r="H15" s="1">
-        <v>913.846000</v>
+        <v>913.846</v>
       </c>
       <c r="I15" s="1">
-        <v>-161.035000</v>
+        <v>-161.035</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>48813.580468</v>
       </c>
       <c r="L15" s="1">
-        <v>13.559328</v>
+        <v>13.559328000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>938.767000</v>
+        <v>938.76700000000005</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.050000</v>
+        <v>-117.05</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>48824.101636</v>
+        <v>48824.101635999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.562250</v>
+        <v>13.562250000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>946.564000</v>
+        <v>946.56399999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-101.867000</v>
+        <v>-101.867</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>48834.593976</v>
+        <v>48834.593975999996</v>
       </c>
       <c r="V15" s="1">
         <v>13.565165</v>
       </c>
       <c r="W15" s="1">
-        <v>953.930000</v>
+        <v>953.93</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.724800</v>
+        <v>-87.724800000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>48845.446442</v>
       </c>
       <c r="AA15" s="1">
-        <v>13.568180</v>
+        <v>13.56818</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.908000</v>
+        <v>961.90800000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.671100</v>
+        <v>-76.671099999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>48855.942814</v>
+        <v>48855.942814000002</v>
       </c>
       <c r="AF15" s="1">
         <v>13.571095</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.852000</v>
+        <v>966.85199999999998</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.620600</v>
+        <v>-74.620599999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>48866.457501</v>
+        <v>48866.457500999997</v>
       </c>
       <c r="AK15" s="1">
         <v>13.574016</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.260000</v>
+        <v>974.26</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.561200</v>
+        <v>-79.561199999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>48877.519742</v>
+        <v>48877.519741999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.577089</v>
+        <v>13.577089000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.486000</v>
+        <v>982.48599999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.294400</v>
+        <v>-91.294399999999996</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>48888.867711</v>
+        <v>48888.867710999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>13.580241</v>
+        <v>13.580240999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>992.442000</v>
+        <v>992.44200000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.063000</v>
+        <v>-109.063</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>48900.001905</v>
+        <v>48900.001904999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>13.583334</v>
+        <v>13.583334000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.758000</v>
+        <v>-124.758</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>48911.055747</v>
+        <v>48911.055746999999</v>
       </c>
       <c r="BE15" s="1">
         <v>13.586404</v>
       </c>
       <c r="BF15" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.787000</v>
+        <v>-196.78700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>48922.764838</v>
+        <v>48922.764838000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>13.589657</v>
+        <v>13.589657000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.410000</v>
+        <v>1106.4100000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.497000</v>
+        <v>-313.49700000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>48933.457558</v>
+        <v>48933.457558000002</v>
       </c>
       <c r="BO15" s="1">
         <v>13.592627</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-497.576000</v>
+        <v>-497.57600000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>48944.411702</v>
+        <v>48944.411701999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.595670</v>
+        <v>13.59567</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.320000</v>
+        <v>1336.32</v>
       </c>
       <c r="BV15" s="1">
-        <v>-699.401000</v>
+        <v>-699.40099999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>48955.320247</v>
+        <v>48955.320247000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.598700</v>
+        <v>13.598699999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1472.230000</v>
+        <v>1472.23</v>
       </c>
       <c r="CA15" s="1">
-        <v>-915.317000</v>
+        <v>-915.31700000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>48967.640841</v>
@@ -4062,45 +4478,45 @@
         <v>13.602122</v>
       </c>
       <c r="CE15" s="1">
-        <v>1828.950000</v>
+        <v>1828.95</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1427.030000</v>
+        <v>-1427.03</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>48793.328813</v>
       </c>
       <c r="B16" s="1">
-        <v>13.553702</v>
+        <v>13.553701999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>895.343000</v>
+        <v>895.34299999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-188.007000</v>
+        <v>-188.00700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>48803.414959</v>
+        <v>48803.414959000002</v>
       </c>
       <c r="G16" s="1">
         <v>13.556504</v>
       </c>
       <c r="H16" s="1">
-        <v>913.675000</v>
+        <v>913.67499999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-160.614000</v>
+        <v>-160.614</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>48813.924691</v>
@@ -4109,43 +4525,43 @@
         <v>13.559424</v>
       </c>
       <c r="M16" s="1">
-        <v>938.861000</v>
+        <v>938.86099999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.964000</v>
+        <v>-116.964</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>48824.788564</v>
+        <v>48824.788564000002</v>
       </c>
       <c r="Q16" s="1">
         <v>13.562441</v>
       </c>
       <c r="R16" s="1">
-        <v>946.574000</v>
+        <v>946.57399999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-101.935000</v>
+        <v>-101.935</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>48835.281969</v>
+        <v>48835.281969000003</v>
       </c>
       <c r="V16" s="1">
         <v>13.565356</v>
       </c>
       <c r="W16" s="1">
-        <v>954.061000</v>
+        <v>954.06100000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.750100</v>
+        <v>-87.750100000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>48845.796616</v>
@@ -4154,1176 +4570,1176 @@
         <v>13.568277</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.879000</v>
+        <v>961.87900000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.599900</v>
+        <v>-76.599900000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>48856.284027</v>
+        <v>48856.284027000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>13.571190</v>
+        <v>13.57119</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.843000</v>
+        <v>966.84299999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.649000</v>
+        <v>-74.649000000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>48866.805201</v>
+        <v>48866.805201000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.574113</v>
+        <v>13.574113000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.264000</v>
+        <v>974.26400000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.556900</v>
+        <v>-79.556899999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>48878.186862</v>
+        <v>48878.186862000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.577274</v>
+        <v>13.577273999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.484000</v>
+        <v>982.48400000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.275200</v>
+        <v>-91.275199999999998</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>48889.331471</v>
+        <v>48889.331470999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>13.580370</v>
+        <v>13.58037</v>
       </c>
       <c r="AV16" s="1">
-        <v>992.466000</v>
+        <v>992.46600000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.064000</v>
+        <v>-109.06399999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>48900.440382</v>
+        <v>48900.440382000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>13.583456</v>
       </c>
       <c r="BA16" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.761000</v>
+        <v>-124.761</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>48911.418818</v>
+        <v>48911.418817999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>13.586505</v>
+        <v>13.586505000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1039.670000</v>
+        <v>1039.67</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.770000</v>
+        <v>-196.77</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>48923.139779</v>
+        <v>48923.139778999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>13.589761</v>
+        <v>13.589760999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.440000</v>
+        <v>1106.44</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.488000</v>
+        <v>-313.488</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>48933.851412</v>
+        <v>48933.851412000004</v>
       </c>
       <c r="BO16" s="1">
         <v>13.592737</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-497.597000</v>
+        <v>-497.59699999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>48944.820275</v>
+        <v>48944.820274999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>13.595783</v>
+        <v>13.595783000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.270000</v>
+        <v>1336.27</v>
       </c>
       <c r="BV16" s="1">
-        <v>-699.374000</v>
+        <v>-699.37400000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>48955.748292</v>
+        <v>48955.748291999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>13.598819</v>
+        <v>13.598819000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1472.370000</v>
+        <v>1472.37</v>
       </c>
       <c r="CA16" s="1">
-        <v>-915.268000</v>
+        <v>-915.26800000000003</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>48968.171062</v>
+        <v>48968.171062000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>13.602270</v>
+        <v>13.602270000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1829.840000</v>
+        <v>1829.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1427.980000</v>
+        <v>-1427.98</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>48793.670093</v>
+        <v>48793.670093000001</v>
       </c>
       <c r="B17" s="1">
-        <v>13.553797</v>
+        <v>13.553796999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>895.238000</v>
+        <v>895.23800000000006</v>
       </c>
       <c r="D17" s="1">
-        <v>-187.700000</v>
+        <v>-187.7</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>48804.102416</v>
+        <v>48804.102416000002</v>
       </c>
       <c r="G17" s="1">
-        <v>13.556695</v>
+        <v>13.556694999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>913.609000</v>
+        <v>913.60900000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-160.578000</v>
+        <v>-160.578</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>48814.618628</v>
+        <v>48814.618627999997</v>
       </c>
       <c r="L17" s="1">
         <v>13.559616</v>
       </c>
       <c r="M17" s="1">
-        <v>938.873000</v>
+        <v>938.87300000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.920000</v>
+        <v>-116.92</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>48825.147668</v>
+        <v>48825.147667999998</v>
       </c>
       <c r="Q17" s="1">
         <v>13.562541</v>
       </c>
       <c r="R17" s="1">
-        <v>946.549000</v>
+        <v>946.54899999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>-101.915000</v>
+        <v>-101.91500000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>48835.623671</v>
+        <v>48835.623671000001</v>
       </c>
       <c r="V17" s="1">
-        <v>13.565451</v>
+        <v>13.565450999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>953.896000</v>
+        <v>953.89599999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.692900</v>
+        <v>-87.692899999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>48846.142360</v>
+        <v>48846.142359999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>13.568373</v>
+        <v>13.568372999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.954000</v>
+        <v>961.95399999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.679900</v>
+        <v>-76.679900000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>48856.941721</v>
+        <v>48856.941721000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>13.571373</v>
+        <v>13.571372999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.881000</v>
+        <v>966.88099999999997</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.664700</v>
+        <v>-74.664699999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>48867.475259</v>
+        <v>48867.475258999999</v>
       </c>
       <c r="AK17" s="1">
         <v>13.574299</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.265000</v>
+        <v>974.26499999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.556300</v>
+        <v>-79.556299999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>48878.600060</v>
+        <v>48878.600059999997</v>
       </c>
       <c r="AP17" s="1">
         <v>13.577389</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.496000</v>
+        <v>982.49599999999998</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.290100</v>
+        <v>-91.290099999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>48889.695553</v>
+        <v>48889.695552999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.580471</v>
+        <v>13.580470999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>992.458000</v>
+        <v>992.45799999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.065000</v>
+        <v>-109.065</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>48900.799968</v>
+        <v>48900.799967999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>13.583556</v>
       </c>
       <c r="BA17" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.771000</v>
+        <v>-124.771</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>48911.778417</v>
+        <v>48911.778417000001</v>
       </c>
       <c r="BE17" s="1">
         <v>13.586605</v>
       </c>
       <c r="BF17" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.778000</v>
+        <v>-196.77799999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>48923.555593</v>
+        <v>48923.555592999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>13.589877</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.420000</v>
+        <v>1106.42</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.520000</v>
+        <v>-313.52</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>48934.285875</v>
+        <v>48934.285875000001</v>
       </c>
       <c r="BO17" s="1">
         <v>13.592857</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-497.569000</v>
+        <v>-497.56900000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>48945.250438</v>
+        <v>48945.250438000003</v>
       </c>
       <c r="BT17" s="1">
         <v>13.595903</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.170000</v>
+        <v>1336.17</v>
       </c>
       <c r="BV17" s="1">
-        <v>-699.401000</v>
+        <v>-699.40099999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>48956.177799</v>
+        <v>48956.177798999997</v>
       </c>
       <c r="BY17" s="1">
         <v>13.598938</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1472.290000</v>
+        <v>1472.29</v>
       </c>
       <c r="CA17" s="1">
-        <v>-915.242000</v>
+        <v>-915.24199999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>48968.691367</v>
+        <v>48968.691366999999</v>
       </c>
       <c r="CD17" s="1">
         <v>13.602414</v>
       </c>
       <c r="CE17" s="1">
-        <v>1829.480000</v>
+        <v>1829.48</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1428.050000</v>
+        <v>-1428.05</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>48794.355036</v>
+        <v>48794.355036000001</v>
       </c>
       <c r="B18" s="1">
         <v>13.553988</v>
       </c>
       <c r="C18" s="1">
-        <v>895.468000</v>
+        <v>895.46799999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-187.523000</v>
+        <v>-187.523</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>48804.445678</v>
+        <v>48804.445677999996</v>
       </c>
       <c r="G18" s="1">
-        <v>13.556790</v>
+        <v>13.556789999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>913.744000</v>
+        <v>913.74400000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-160.296000</v>
+        <v>-160.29599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>48814.966289</v>
+        <v>48814.966289000004</v>
       </c>
       <c r="L18" s="1">
         <v>13.559713</v>
       </c>
       <c r="M18" s="1">
-        <v>938.929000</v>
+        <v>938.92899999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.981000</v>
+        <v>-116.98099999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>48825.497348</v>
+        <v>48825.497347999997</v>
       </c>
       <c r="Q18" s="1">
         <v>13.562638</v>
       </c>
       <c r="R18" s="1">
-        <v>946.568000</v>
+        <v>946.56799999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-101.945000</v>
+        <v>-101.94499999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>48836.284836</v>
+        <v>48836.284835999999</v>
       </c>
       <c r="V18" s="1">
         <v>13.565635</v>
       </c>
       <c r="W18" s="1">
-        <v>953.997000</v>
+        <v>953.99699999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.782400</v>
+        <v>-87.782399999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>48846.795841</v>
+        <v>48846.795840999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.568554</v>
+        <v>13.568554000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.858000</v>
+        <v>961.85799999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.677300</v>
+        <v>-76.677300000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>48857.317193</v>
+        <v>48857.317193000003</v>
       </c>
       <c r="AF18" s="1">
         <v>13.571477</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.860000</v>
+        <v>966.86</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.685900</v>
+        <v>-74.685900000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>48867.850731</v>
+        <v>48867.850730999999</v>
       </c>
       <c r="AK18" s="1">
         <v>13.574403</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.267000</v>
+        <v>974.26700000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.574600</v>
+        <v>-79.574600000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>48878.984958</v>
+        <v>48878.984958000001</v>
       </c>
       <c r="AP18" s="1">
         <v>13.577496</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.496000</v>
+        <v>982.49599999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.279900</v>
+        <v>-91.279899999999998</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>48890.061120</v>
+        <v>48890.061119999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>13.580573</v>
+        <v>13.580572999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>992.486000</v>
+        <v>992.48599999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.055000</v>
+        <v>-109.05500000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>48901.158080</v>
+        <v>48901.158080000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>13.583655</v>
       </c>
       <c r="BA18" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.739000</v>
+        <v>-124.739</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>48912.196546</v>
+        <v>48912.196545999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>13.586721</v>
+        <v>13.586721000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.777000</v>
+        <v>-196.77699999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>48923.914529</v>
+        <v>48923.914529000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>13.589976</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.420000</v>
+        <v>1106.42</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.512000</v>
+        <v>-313.512</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>48934.684659</v>
+        <v>48934.684658999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>13.592968</v>
+        <v>13.592968000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-497.544000</v>
+        <v>-497.54399999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>48945.676532</v>
+        <v>48945.676531999998</v>
       </c>
       <c r="BT18" s="1">
         <v>13.596021</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.150000</v>
+        <v>1336.15</v>
       </c>
       <c r="BV18" s="1">
-        <v>-699.354000</v>
+        <v>-699.35400000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>48956.599925</v>
+        <v>48956.599925000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>13.599056</v>
+        <v>13.599055999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1472.210000</v>
+        <v>1472.21</v>
       </c>
       <c r="CA18" s="1">
-        <v>-915.174000</v>
+        <v>-915.17399999999998</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>48969.241926</v>
+        <v>48969.241926000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.602567</v>
+        <v>13.602567000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1828.670000</v>
+        <v>1828.67</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1427.390000</v>
+        <v>-1427.39</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>48794.694301</v>
+        <v>48794.694301000003</v>
       </c>
       <c r="B19" s="1">
-        <v>13.554082</v>
+        <v>13.554081999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>895.392000</v>
+        <v>895.39200000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-187.777000</v>
+        <v>-187.77699999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>48804.793379</v>
+        <v>48804.793379000002</v>
       </c>
       <c r="G19" s="1">
         <v>13.556887</v>
       </c>
       <c r="H19" s="1">
-        <v>913.295000</v>
+        <v>913.29499999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-161.052000</v>
+        <v>-161.05199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>48815.312512</v>
+        <v>48815.312511999997</v>
       </c>
       <c r="L19" s="1">
         <v>13.559809</v>
       </c>
       <c r="M19" s="1">
-        <v>938.809000</v>
+        <v>938.80899999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.050000</v>
+        <v>-117.05</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>48826.152594</v>
+        <v>48826.152593999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>13.562820</v>
+        <v>13.56282</v>
       </c>
       <c r="R19" s="1">
-        <v>946.530000</v>
+        <v>946.53</v>
       </c>
       <c r="S19" s="1">
-        <v>-101.870000</v>
+        <v>-101.87</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>48836.654357</v>
+        <v>48836.654356999999</v>
       </c>
       <c r="V19" s="1">
         <v>13.565737</v>
       </c>
       <c r="W19" s="1">
-        <v>954.040000</v>
+        <v>954.04</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.751700</v>
+        <v>-87.7517</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>48847.187399</v>
+        <v>48847.187399000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>13.568663</v>
+        <v>13.568663000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.851000</v>
+        <v>961.851</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.647600</v>
+        <v>-76.647599999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>48857.658968</v>
+        <v>48857.658968000003</v>
       </c>
       <c r="AF19" s="1">
         <v>13.571572</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.847000</v>
+        <v>966.84699999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.642900</v>
+        <v>-74.642899999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>48868.241612</v>
+        <v>48868.241611999998</v>
       </c>
       <c r="AK19" s="1">
         <v>13.574512</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.277000</v>
+        <v>974.27700000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.581400</v>
+        <v>-79.581400000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>48879.346509</v>
+        <v>48879.346509000003</v>
       </c>
       <c r="AP19" s="1">
         <v>13.577596</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.468000</v>
+        <v>982.46799999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.284100</v>
+        <v>-91.284099999999995</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>48890.485196</v>
+        <v>48890.485196000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>13.580690</v>
+        <v>13.580690000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>992.457000</v>
+        <v>992.45699999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.067000</v>
+        <v>-109.06699999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>48901.590768</v>
+        <v>48901.590768000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>13.583775</v>
+        <v>13.583774999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.728000</v>
+        <v>-124.72799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>48912.502591</v>
+        <v>48912.502590999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>13.586806</v>
+        <v>13.586805999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.781000</v>
+        <v>-196.78100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>48924.290496</v>
+        <v>48924.290496000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>13.590081</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.410000</v>
+        <v>1106.4100000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.515000</v>
+        <v>-313.51499999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>48935.148914</v>
+        <v>48935.148913999998</v>
       </c>
       <c r="BO19" s="1">
         <v>13.593097</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.550000</v>
+        <v>1214.55</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-497.574000</v>
+        <v>-497.57400000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>48946.090659</v>
+        <v>48946.090659000001</v>
       </c>
       <c r="BT19" s="1">
         <v>13.596136</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.130000</v>
+        <v>1336.13</v>
       </c>
       <c r="BV19" s="1">
-        <v>-699.410000</v>
+        <v>-699.41</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>48957.023477</v>
+        <v>48957.023477000002</v>
       </c>
       <c r="BY19" s="1">
         <v>13.599173</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1472.360000</v>
+        <v>1472.36</v>
       </c>
       <c r="CA19" s="1">
-        <v>-915.293000</v>
+        <v>-915.29300000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>48969.772148</v>
+        <v>48969.772147999996</v>
       </c>
       <c r="CD19" s="1">
-        <v>13.602714</v>
+        <v>13.602714000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1829.810000</v>
+        <v>1829.81</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1427.820000</v>
+        <v>-1427.82</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>48795.039020</v>
+        <v>48795.039019999997</v>
       </c>
       <c r="B20" s="1">
         <v>13.554178</v>
       </c>
       <c r="C20" s="1">
-        <v>895.415000</v>
+        <v>895.41499999999996</v>
       </c>
       <c r="D20" s="1">
-        <v>-187.620000</v>
+        <v>-187.62</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>48805.451037</v>
+        <v>48805.451036999999</v>
       </c>
       <c r="G20" s="1">
-        <v>13.557070</v>
+        <v>13.55707</v>
       </c>
       <c r="H20" s="1">
-        <v>914.083000</v>
+        <v>914.08299999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-160.666000</v>
+        <v>-160.666</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>48815.969240</v>
+        <v>48815.969239999999</v>
       </c>
       <c r="L20" s="1">
         <v>13.559991</v>
       </c>
       <c r="M20" s="1">
-        <v>938.901000</v>
+        <v>938.90099999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.027000</v>
+        <v>-117.027</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>48826.540433</v>
+        <v>48826.540433000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>13.562928</v>
+        <v>13.562927999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>946.567000</v>
+        <v>946.56700000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-101.901000</v>
+        <v>-101.901</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>48836.999573</v>
+        <v>48836.999573000001</v>
       </c>
       <c r="V20" s="1">
         <v>13.565833</v>
       </c>
       <c r="W20" s="1">
-        <v>954.009000</v>
+        <v>954.00900000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.588900</v>
+        <v>-87.588899999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>48847.535591</v>
       </c>
       <c r="AA20" s="1">
-        <v>13.568760</v>
+        <v>13.568759999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.857000</v>
+        <v>961.85699999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.557300</v>
+        <v>-76.557299999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>48858.006171</v>
+        <v>48858.006171000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>13.571668</v>
+        <v>13.571668000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.829000</v>
+        <v>966.82899999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.644000</v>
+        <v>-74.644000000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>48868.549098</v>
+        <v>48868.549098000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.574597</v>
+        <v>13.574597000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.261000</v>
+        <v>974.26099999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.549400</v>
+        <v>-79.549400000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>48879.765132</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.577713</v>
+        <v>13.577712999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.499000</v>
+        <v>982.49900000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.269800</v>
+        <v>-91.269800000000004</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>48890.792190</v>
+        <v>48890.79219</v>
       </c>
       <c r="AU20" s="1">
         <v>13.580776</v>
       </c>
       <c r="AV20" s="1">
-        <v>992.473000</v>
+        <v>992.47299999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.066000</v>
+        <v>-109.066</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>48901.873316</v>
+        <v>48901.873315999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.583854</v>
+        <v>13.583854000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.738000</v>
+        <v>-124.738</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>48912.864655</v>
+        <v>48912.864654999998</v>
       </c>
       <c r="BE20" s="1">
         <v>13.586907</v>
       </c>
       <c r="BF20" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.770000</v>
+        <v>-196.77</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>48924.664989</v>
+        <v>48924.664988999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>13.590185</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.430000</v>
+        <v>1106.43</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.521000</v>
+        <v>-313.52100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>48935.803633</v>
+        <v>48935.803633000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.593279</v>
+        <v>13.593279000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-497.540000</v>
+        <v>-497.54</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>48946.520196</v>
+        <v>48946.520195999998</v>
       </c>
       <c r="BT20" s="1">
         <v>13.596256</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.050000</v>
+        <v>1336.05</v>
       </c>
       <c r="BV20" s="1">
-        <v>-699.374000</v>
+        <v>-699.37400000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>48957.450567</v>
@@ -5332,75 +5748,75 @@
         <v>13.599292</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="CA20" s="1">
-        <v>-915.304000</v>
+        <v>-915.30399999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>48970.287491</v>
+        <v>48970.287491000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.602858</v>
+        <v>13.602857999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.200000</v>
+        <v>1830.2</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1426.620000</v>
+        <v>-1426.62</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>48795.687291</v>
+        <v>48795.687291000002</v>
       </c>
       <c r="B21" s="1">
-        <v>13.554358</v>
+        <v>13.554358000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>895.444000</v>
+        <v>895.44399999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-187.621000</v>
+        <v>-187.62100000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>48805.826045</v>
+        <v>48805.826045000002</v>
       </c>
       <c r="G21" s="1">
         <v>13.557174</v>
       </c>
       <c r="H21" s="1">
-        <v>914.423000</v>
+        <v>914.423</v>
       </c>
       <c r="I21" s="1">
-        <v>-160.718000</v>
+        <v>-160.71799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>48816.350624</v>
+        <v>48816.350623999999</v>
       </c>
       <c r="L21" s="1">
-        <v>13.560097</v>
+        <v>13.560097000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>938.986000</v>
+        <v>938.98599999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.956000</v>
+        <v>-116.956</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>48826.891636</v>
@@ -5409,43 +5825,43 @@
         <v>13.563025</v>
       </c>
       <c r="R21" s="1">
-        <v>946.562000</v>
+        <v>946.56200000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-101.887000</v>
+        <v>-101.887</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>48837.340323</v>
+        <v>48837.340322999997</v>
       </c>
       <c r="V21" s="1">
         <v>13.565928</v>
       </c>
       <c r="W21" s="1">
-        <v>954.086000</v>
+        <v>954.08600000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.749000</v>
+        <v>-87.748999999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>48847.884310</v>
+        <v>48847.884310000001</v>
       </c>
       <c r="AA21" s="1">
         <v>13.568857</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.891000</v>
+        <v>961.89099999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.665200</v>
+        <v>-76.665199999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>48858.436663</v>
@@ -5454,118 +5870,118 @@
         <v>13.571788</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.826000</v>
+        <v>966.82600000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.704300</v>
+        <v>-74.704300000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>48869.246473</v>
+        <v>48869.246472999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>13.574791</v>
+        <v>13.574790999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.281000</v>
+        <v>974.28099999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.573400</v>
+        <v>-79.573400000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>48880.068188</v>
+        <v>48880.068187999997</v>
       </c>
       <c r="AP21" s="1">
         <v>13.577797</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.486000</v>
+        <v>982.48599999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.287700</v>
+        <v>-91.287700000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>48891.154796</v>
+        <v>48891.154796000003</v>
       </c>
       <c r="AU21" s="1">
         <v>13.580876</v>
       </c>
       <c r="AV21" s="1">
-        <v>992.456000</v>
+        <v>992.45600000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.074000</v>
+        <v>-109.074</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>48902.234893</v>
+        <v>48902.234893000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>13.583954</v>
       </c>
       <c r="BA21" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.750000</v>
+        <v>-124.75</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>48913.223263</v>
       </c>
       <c r="BE21" s="1">
-        <v>13.587006</v>
+        <v>13.587006000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.772000</v>
+        <v>-196.77199999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>48925.414928</v>
+        <v>48925.414927999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>13.590393</v>
+        <v>13.590393000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.410000</v>
+        <v>1106.4100000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.493000</v>
+        <v>-313.49299999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>48935.912753</v>
+        <v>48935.912752999997</v>
       </c>
       <c r="BO21" s="1">
         <v>13.593309</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-497.549000</v>
+        <v>-497.54899999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>48946.949234</v>
@@ -5574,303 +5990,303 @@
         <v>13.596375</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.010000</v>
+        <v>1336.01</v>
       </c>
       <c r="BV21" s="1">
-        <v>-699.487000</v>
+        <v>-699.48699999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>48957.865189</v>
+        <v>48957.865188999996</v>
       </c>
       <c r="BY21" s="1">
-        <v>13.599407</v>
+        <v>13.599406999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1472.270000</v>
+        <v>1472.27</v>
       </c>
       <c r="CA21" s="1">
-        <v>-915.252000</v>
+        <v>-915.25199999999995</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>48971.117300</v>
+        <v>48971.117299999998</v>
       </c>
       <c r="CD21" s="1">
         <v>13.603088</v>
       </c>
       <c r="CE21" s="1">
-        <v>1829.010000</v>
+        <v>1829.01</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1426.600000</v>
+        <v>-1426.6</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>48796.064747</v>
+        <v>48796.064746999997</v>
       </c>
       <c r="B22" s="1">
-        <v>13.554462</v>
+        <v>13.554461999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>895.519000</v>
+        <v>895.51900000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-187.444000</v>
+        <v>-187.44399999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>48806.171260</v>
+        <v>48806.171260000003</v>
       </c>
       <c r="G22" s="1">
-        <v>13.557270</v>
+        <v>13.557270000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>913.943000</v>
+        <v>913.94299999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-160.767000</v>
+        <v>-160.767</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>48816.695343</v>
+        <v>48816.695342999999</v>
       </c>
       <c r="L22" s="1">
         <v>13.560193</v>
       </c>
       <c r="M22" s="1">
-        <v>938.942000</v>
+        <v>938.94200000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.062000</v>
+        <v>-117.062</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>48827.238800</v>
+        <v>48827.238799999999</v>
       </c>
       <c r="Q22" s="1">
         <v>13.563122</v>
       </c>
       <c r="R22" s="1">
-        <v>946.594000</v>
+        <v>946.59400000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-101.912000</v>
+        <v>-101.91200000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>48837.763913</v>
+        <v>48837.763913000003</v>
       </c>
       <c r="V22" s="1">
         <v>13.566046</v>
       </c>
       <c r="W22" s="1">
-        <v>954.026000</v>
+        <v>954.02599999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.677200</v>
+        <v>-87.677199999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>48848.314308</v>
+        <v>48848.314308000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>13.568976</v>
+        <v>13.568975999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.789000</v>
+        <v>961.78899999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.574600</v>
+        <v>-76.574600000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>48858.708968</v>
+        <v>48858.708967999999</v>
       </c>
       <c r="AF22" s="1">
         <v>13.571864</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.824000</v>
+        <v>966.82399999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.693400</v>
+        <v>-74.693399999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>48869.593689</v>
+        <v>48869.593689000001</v>
       </c>
       <c r="AK22" s="1">
         <v>13.574887</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.262000</v>
+        <v>974.26199999999994</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.582100</v>
+        <v>-79.582099999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>48880.424842</v>
       </c>
       <c r="AP22" s="1">
-        <v>13.577896</v>
+        <v>13.577896000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.505000</v>
+        <v>982.505</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.299500</v>
+        <v>-91.299499999999995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>48891.518863</v>
+        <v>48891.518862999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.580977</v>
+        <v>13.580977000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>992.459000</v>
+        <v>992.45899999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.084000</v>
+        <v>-109.084</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>48902.946684</v>
+        <v>48902.946684000002</v>
       </c>
       <c r="AZ22" s="1">
         <v>13.584152</v>
       </c>
       <c r="BA22" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.761000</v>
+        <v>-124.761</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>48913.944942</v>
+        <v>48913.944942000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>13.587207</v>
+        <v>13.587206999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1039.670000</v>
+        <v>1039.67</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.784000</v>
+        <v>-196.78399999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>48925.790398</v>
+        <v>48925.790397999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>13.590497</v>
+        <v>13.590496999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.420000</v>
+        <v>1106.42</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.515000</v>
+        <v>-313.51499999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>48936.304393</v>
+        <v>48936.304392999999</v>
       </c>
       <c r="BO22" s="1">
         <v>13.593418</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.540000</v>
+        <v>1214.54</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-497.592000</v>
+        <v>-497.59199999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>48947.358466</v>
+        <v>48947.358465999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>13.596488</v>
+        <v>13.596488000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1335.860000</v>
+        <v>1335.86</v>
       </c>
       <c r="BV22" s="1">
-        <v>-699.438000</v>
+        <v>-699.43799999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>48958.621125</v>
+        <v>48958.621124999998</v>
       </c>
       <c r="BY22" s="1">
         <v>13.599617</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1472.370000</v>
+        <v>1472.37</v>
       </c>
       <c r="CA22" s="1">
-        <v>-915.271000</v>
+        <v>-915.27099999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>48971.359347</v>
+        <v>48971.359346999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>13.603155</v>
+        <v>13.603154999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1829.710000</v>
+        <v>1829.71</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1428.020000</v>
+        <v>-1428.02</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>48796.407519</v>
       </c>
@@ -5878,223 +6294,223 @@
         <v>13.554558</v>
       </c>
       <c r="C23" s="1">
-        <v>895.583000</v>
+        <v>895.58299999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-187.394000</v>
+        <v>-187.39400000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>48806.517966</v>
+        <v>48806.517965999999</v>
       </c>
       <c r="G23" s="1">
         <v>13.557366</v>
       </c>
       <c r="H23" s="1">
-        <v>913.587000</v>
+        <v>913.58699999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-160.553000</v>
+        <v>-160.553</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>48817.038079</v>
+        <v>48817.038078999998</v>
       </c>
       <c r="L23" s="1">
         <v>13.560288</v>
       </c>
       <c r="M23" s="1">
-        <v>938.778000</v>
+        <v>938.77800000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.983000</v>
+        <v>-116.983</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>48827.663872</v>
+        <v>48827.663871999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.563240</v>
+        <v>13.56324</v>
       </c>
       <c r="R23" s="1">
-        <v>946.585000</v>
+        <v>946.58500000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-101.967000</v>
+        <v>-101.967</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>48838.029267</v>
+        <v>48838.029266999998</v>
       </c>
       <c r="V23" s="1">
         <v>13.566119</v>
       </c>
       <c r="W23" s="1">
-        <v>953.971000</v>
+        <v>953.971</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.547900</v>
+        <v>-87.547899999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>48848.593093</v>
+        <v>48848.593093000003</v>
       </c>
       <c r="AA23" s="1">
         <v>13.569054</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.916000</v>
+        <v>961.91600000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.629700</v>
+        <v>-76.6297</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>48859.055174</v>
+        <v>48859.055174000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>13.571960</v>
+        <v>13.571960000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.851000</v>
+        <v>966.851</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.630100</v>
+        <v>-74.630099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>48869.942857</v>
+        <v>48869.942857000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>13.574984</v>
+        <v>13.574984000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.267000</v>
+        <v>974.26700000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.544500</v>
+        <v>-79.544499999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>48880.785899</v>
+        <v>48880.785899000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.577996</v>
+        <v>13.577996000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.477000</v>
+        <v>982.47699999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.288000</v>
+        <v>-91.287999999999997</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>48892.251418</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.581181</v>
+        <v>13.581181000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>992.452000</v>
+        <v>992.452</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.073000</v>
+        <v>-109.07299999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>48903.309259</v>
+        <v>48903.309259000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>13.584253</v>
       </c>
       <c r="BA23" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.743000</v>
+        <v>-124.74299999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>48914.305068</v>
+        <v>48914.305068000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>13.587307</v>
+        <v>13.587306999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.784000</v>
+        <v>-196.78399999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>48926.165869</v>
+        <v>48926.165868999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>13.590602</v>
+        <v>13.590602000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.410000</v>
+        <v>1106.4100000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.500000</v>
+        <v>-313.5</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>48937.035696</v>
+        <v>48937.035695999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>13.593621</v>
+        <v>13.593621000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-497.557000</v>
+        <v>-497.55700000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>48948.103326</v>
+        <v>48948.103325999997</v>
       </c>
       <c r="BT23" s="1">
         <v>13.596695</v>
       </c>
       <c r="BU23" s="1">
-        <v>1335.910000</v>
+        <v>1335.91</v>
       </c>
       <c r="BV23" s="1">
-        <v>-699.598000</v>
+        <v>-699.59799999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>48958.757523</v>
@@ -6103,31 +6519,31 @@
         <v>13.599655</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1472.360000</v>
+        <v>1472.36</v>
       </c>
       <c r="CA23" s="1">
-        <v>-915.243000</v>
+        <v>-915.24300000000005</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>48971.891586</v>
+        <v>48971.891585999998</v>
       </c>
       <c r="CD23" s="1">
         <v>13.603303</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.070000</v>
+        <v>1830.07</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1426.590000</v>
+        <v>-1426.59</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>48796.750216</v>
       </c>
@@ -6135,13 +6551,13 @@
         <v>13.554653</v>
       </c>
       <c r="C24" s="1">
-        <v>895.420000</v>
+        <v>895.42</v>
       </c>
       <c r="D24" s="1">
-        <v>-187.317000</v>
+        <v>-187.31700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>48806.939563</v>
@@ -6150,480 +6566,480 @@
         <v>13.557483</v>
       </c>
       <c r="H24" s="1">
-        <v>914.214000</v>
+        <v>914.21400000000006</v>
       </c>
       <c r="I24" s="1">
-        <v>-160.809000</v>
+        <v>-160.809</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>48817.474062</v>
+        <v>48817.474062000001</v>
       </c>
       <c r="L24" s="1">
         <v>13.560409</v>
       </c>
       <c r="M24" s="1">
-        <v>938.855000</v>
+        <v>938.85500000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.014000</v>
+        <v>-117.014</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>48827.944150</v>
+        <v>48827.944150000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>13.563318</v>
+        <v>13.563318000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>946.526000</v>
+        <v>946.52599999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-101.908000</v>
+        <v>-101.908</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>48838.373987</v>
+        <v>48838.373986999999</v>
       </c>
       <c r="V24" s="1">
         <v>13.566215</v>
       </c>
       <c r="W24" s="1">
-        <v>954.077000</v>
+        <v>954.077</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.642500</v>
+        <v>-87.642499999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>48848.944263</v>
+        <v>48848.944262999998</v>
       </c>
       <c r="AA24" s="1">
         <v>13.569151</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.856000</v>
+        <v>961.85599999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.628800</v>
+        <v>-76.628799999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>48859.398904</v>
+        <v>48859.398904000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>13.572055</v>
+        <v>13.572055000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.846000</v>
+        <v>966.846</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.691200</v>
+        <v>-74.691199999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>48870.641237</v>
+        <v>48870.641237000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.575178</v>
+        <v>13.575177999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.257000</v>
+        <v>974.25699999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.559000</v>
+        <v>-79.558999999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>48881.506088</v>
+        <v>48881.506088000002</v>
       </c>
       <c r="AP24" s="1">
         <v>13.578196</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.510000</v>
+        <v>982.51</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.294200</v>
+        <v>-91.294200000000004</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>48892.640785</v>
+        <v>48892.640785000003</v>
       </c>
       <c r="AU24" s="1">
         <v>13.581289</v>
       </c>
       <c r="AV24" s="1">
-        <v>992.438000</v>
+        <v>992.43799999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.057000</v>
+        <v>-109.057</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>48903.665357</v>
+        <v>48903.665356999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>13.584351</v>
       </c>
       <c r="BA24" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.760000</v>
+        <v>-124.76</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>48914.669100</v>
+        <v>48914.669099999999</v>
       </c>
       <c r="BE24" s="1">
         <v>13.587408</v>
       </c>
       <c r="BF24" s="1">
-        <v>1039.660000</v>
+        <v>1039.6600000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.792000</v>
+        <v>-196.792</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>48926.845389</v>
+        <v>48926.845389000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>13.590790</v>
+        <v>13.59079</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.390000</v>
+        <v>1106.3900000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.497000</v>
+        <v>-313.49700000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>48937.544095</v>
+        <v>48937.544094999997</v>
       </c>
       <c r="BO24" s="1">
         <v>13.593762</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-497.551000</v>
+        <v>-497.55099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>48948.219490</v>
+        <v>48948.219490000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.596728</v>
+        <v>13.596728000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1335.820000</v>
+        <v>1335.82</v>
       </c>
       <c r="BV24" s="1">
-        <v>-699.557000</v>
+        <v>-699.55700000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>48959.183566</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.599773</v>
+        <v>13.599773000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1472.290000</v>
+        <v>1472.29</v>
       </c>
       <c r="CA24" s="1">
-        <v>-915.249000</v>
+        <v>-915.24900000000002</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>48972.428260</v>
+        <v>48972.428260000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>13.603452</v>
+        <v>13.603452000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1828.930000</v>
+        <v>1828.93</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1427.550000</v>
+        <v>-1427.55</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>48797.175784</v>
+        <v>48797.175783999999</v>
       </c>
       <c r="B25" s="1">
-        <v>13.554771</v>
+        <v>13.554771000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>895.670000</v>
+        <v>895.67</v>
       </c>
       <c r="D25" s="1">
-        <v>-187.211000</v>
+        <v>-187.21100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>48807.233163</v>
+        <v>48807.233162999997</v>
       </c>
       <c r="G25" s="1">
         <v>13.557565</v>
       </c>
       <c r="H25" s="1">
-        <v>913.942000</v>
+        <v>913.94200000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-160.555000</v>
+        <v>-160.55500000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>48817.750830</v>
+        <v>48817.750829999997</v>
       </c>
       <c r="L25" s="1">
-        <v>13.560486</v>
+        <v>13.560485999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>938.872000</v>
+        <v>938.87199999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.957000</v>
+        <v>-116.95699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>48828.291841</v>
+        <v>48828.291840999998</v>
       </c>
       <c r="Q25" s="1">
         <v>13.563414</v>
       </c>
       <c r="R25" s="1">
-        <v>946.536000</v>
+        <v>946.53599999999994</v>
       </c>
       <c r="S25" s="1">
-        <v>-101.906000</v>
+        <v>-101.90600000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>48838.716722</v>
+        <v>48838.716721999997</v>
       </c>
       <c r="V25" s="1">
-        <v>13.566310</v>
+        <v>13.56631</v>
       </c>
       <c r="W25" s="1">
-        <v>954.013000</v>
+        <v>954.01300000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.738800</v>
+        <v>-87.738799999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>48849.292947</v>
+        <v>48849.292947000002</v>
       </c>
       <c r="AA25" s="1">
         <v>13.569248</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.844000</v>
+        <v>961.84400000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.685000</v>
+        <v>-76.685000000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>48860.084411</v>
+        <v>48860.084411000003</v>
       </c>
       <c r="AF25" s="1">
         <v>13.572246</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.818000</v>
+        <v>966.81799999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.594600</v>
+        <v>-74.5946</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>48870.989421</v>
+        <v>48870.989420999998</v>
       </c>
       <c r="AK25" s="1">
         <v>13.575275</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.255000</v>
+        <v>974.255</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.560600</v>
+        <v>-79.560599999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>48881.867704</v>
+        <v>48881.867703999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>13.578297</v>
+        <v>13.578296999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.493000</v>
+        <v>982.49300000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.277600</v>
+        <v>-91.277600000000007</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>48893.002393</v>
+        <v>48893.002393000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>13.581390</v>
+        <v>13.581390000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>992.449000</v>
+        <v>992.44899999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.071000</v>
+        <v>-109.071</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>48904.339424</v>
+        <v>48904.339423999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>13.584539</v>
+        <v>13.584538999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.745000</v>
+        <v>-124.745</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>48915.339725</v>
+        <v>48915.339724999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.587594</v>
+        <v>13.587593999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1039.670000</v>
+        <v>1039.67</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.764000</v>
+        <v>-196.76400000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>48927.295788</v>
+        <v>48927.295788000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>13.590915</v>
+        <v>13.590915000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.430000</v>
+        <v>1106.43</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.501000</v>
+        <v>-313.50099999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>48937.961231</v>
+        <v>48937.961231000001</v>
       </c>
       <c r="BO25" s="1">
         <v>13.593878</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.570000</v>
+        <v>1214.57</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-497.543000</v>
+        <v>-497.54300000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>48948.658945</v>
+        <v>48948.658945000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>13.596850</v>
+        <v>13.59685</v>
       </c>
       <c r="BU25" s="1">
-        <v>1335.860000</v>
+        <v>1335.86</v>
       </c>
       <c r="BV25" s="1">
-        <v>-699.613000</v>
+        <v>-699.61300000000006</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>48959.631473</v>
+        <v>48959.631473000001</v>
       </c>
       <c r="BY25" s="1">
         <v>13.599898</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1472.370000</v>
+        <v>1472.37</v>
       </c>
       <c r="CA25" s="1">
-        <v>-915.320000</v>
+        <v>-915.32</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>48972.969888</v>
@@ -6632,272 +7048,273 @@
         <v>13.603603</v>
       </c>
       <c r="CE25" s="1">
-        <v>1830.450000</v>
+        <v>1830.45</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1427.450000</v>
+        <v>-1427.45</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>48797.449110</v>
+        <v>48797.449110000001</v>
       </c>
       <c r="B26" s="1">
-        <v>13.554847</v>
+        <v>13.554847000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>895.604000</v>
+        <v>895.60400000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-187.325000</v>
+        <v>-187.32499999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>48807.576890</v>
+        <v>48807.576889999997</v>
       </c>
       <c r="G26" s="1">
-        <v>13.557660</v>
+        <v>13.55766</v>
       </c>
       <c r="H26" s="1">
-        <v>913.778000</v>
+        <v>913.77800000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-160.555000</v>
+        <v>-160.55500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>48818.095548</v>
+        <v>48818.095547999998</v>
       </c>
       <c r="L26" s="1">
         <v>13.560582</v>
       </c>
       <c r="M26" s="1">
-        <v>938.741000</v>
+        <v>938.74099999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.036000</v>
+        <v>-117.036</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>48828.640036</v>
+        <v>48828.640035999997</v>
       </c>
       <c r="Q26" s="1">
         <v>13.563511</v>
       </c>
       <c r="R26" s="1">
-        <v>946.546000</v>
+        <v>946.54600000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-101.859000</v>
+        <v>-101.85899999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>48839.401698</v>
+        <v>48839.401698000001</v>
       </c>
       <c r="V26" s="1">
-        <v>13.566500</v>
+        <v>13.5665</v>
       </c>
       <c r="W26" s="1">
-        <v>954.111000</v>
+        <v>954.11099999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.655900</v>
+        <v>-87.655900000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>48849.986322</v>
+        <v>48849.986321999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>13.569441</v>
+        <v>13.569440999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.901000</v>
+        <v>961.90099999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.635600</v>
+        <v>-76.635599999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>48860.430616</v>
+        <v>48860.430615999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>13.572342</v>
+        <v>13.572342000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.857000</v>
+        <v>966.85699999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.623700</v>
+        <v>-74.623699999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>48871.336615</v>
       </c>
       <c r="AK26" s="1">
-        <v>13.575371</v>
+        <v>13.575371000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.267000</v>
+        <v>974.26700000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.581700</v>
+        <v>-79.581699999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>48882.225984</v>
+        <v>48882.225983999997</v>
       </c>
       <c r="AP26" s="1">
         <v>13.578396</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.494000</v>
+        <v>982.49400000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.293200</v>
+        <v>-91.293199999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>48893.677913</v>
       </c>
       <c r="AU26" s="1">
-        <v>13.581577</v>
+        <v>13.581576999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>992.458000</v>
+        <v>992.45799999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.070000</v>
+        <v>-109.07</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>48904.774027</v>
+        <v>48904.774026999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>13.584659</v>
       </c>
       <c r="BA26" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.743000</v>
+        <v>-124.74299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>48915.780635</v>
+        <v>48915.780635000003</v>
       </c>
       <c r="BE26" s="1">
         <v>13.587717</v>
       </c>
       <c r="BF26" s="1">
-        <v>1039.670000</v>
+        <v>1039.67</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.793000</v>
+        <v>-196.79300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>48927.670733</v>
+        <v>48927.670732999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>13.591020</v>
+        <v>13.59102</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.420000</v>
+        <v>1106.42</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.506000</v>
+        <v>-313.50599999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>48938.360015</v>
+        <v>48938.360014999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>13.593989</v>
+        <v>13.593989000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-497.565000</v>
+        <v>-497.565</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>48949.067184</v>
       </c>
       <c r="BT26" s="1">
-        <v>13.596963</v>
+        <v>13.596963000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1335.800000</v>
+        <v>1335.8</v>
       </c>
       <c r="BV26" s="1">
-        <v>-699.713000</v>
+        <v>-699.71299999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>48960.062499</v>
       </c>
       <c r="BY26" s="1">
-        <v>13.600017</v>
+        <v>13.600016999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1472.290000</v>
+        <v>1472.29</v>
       </c>
       <c r="CA26" s="1">
-        <v>-915.326000</v>
+        <v>-915.32600000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>48973.512479</v>
+        <v>48973.512478999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>13.603753</v>
+        <v>13.603752999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1828.680000</v>
+        <v>1828.68</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1427.120000</v>
+        <v>-1427.12</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>